--- a/examples/example_large_2.xlsx
+++ b/examples/example_large_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/protmaks/_VS_code_projects_NEW/maxpilot/maxpilot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7469CEC7-219D-B942-975B-4E360646DE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522AD12B-4CD4-B843-AA28-A34FA7603D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="41">
   <si>
     <t>First Name</t>
   </si>
@@ -49,9 +49,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t>15/10/2017</t>
-  </si>
-  <si>
     <t>Mara</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Great Britain</t>
   </si>
   <si>
-    <t>16/08/2016</t>
-  </si>
-  <si>
     <t>Philip</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
   </si>
   <si>
     <t>France</t>
-  </si>
-  <si>
-    <t>21/05/2015</t>
   </si>
   <si>
     <t>Kathleen</t>
@@ -158,8 +149,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="169" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -209,12 +202,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,13 +432,17 @@
   <dimension ref="A1:Y999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="25" width="10" customWidth="1"/>
+    <col min="1" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="10" style="7" customWidth="1"/>
+    <col min="14" max="25" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -458,50 +461,50 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -511,134 +514,134 @@
     </row>
     <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
+      <c r="F2" s="9">
+        <v>45778</v>
       </c>
       <c r="G2" s="2">
         <v>1582</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" s="2">
         <v>25</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>13</v>
+      <c r="M2" s="6">
+        <v>45778</v>
       </c>
       <c r="N2" s="2">
         <v>1582</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S2" s="2">
         <v>25</v>
       </c>
       <c r="T2" s="3">
-        <v>45779</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="2">
         <v>36</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
+      <c r="F3" s="9">
+        <v>45778</v>
       </c>
       <c r="G3" s="2">
         <v>2587</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="L3" s="2">
         <v>36</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
+      <c r="M3" s="6">
+        <v>45778</v>
       </c>
       <c r="N3" s="2">
         <v>2587</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="S3" s="2">
         <v>36</v>
       </c>
       <c r="T3" s="3">
-        <v>45780</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -649,17 +652,17 @@
       <c r="E4" s="2">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
+      <c r="F4" s="9">
+        <v>45778</v>
       </c>
       <c r="G4" s="2">
         <v>3549</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>7</v>
@@ -670,17 +673,17 @@
       <c r="L4" s="2">
         <v>25</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>9</v>
+      <c r="M4" s="6">
+        <v>45778</v>
       </c>
       <c r="N4" s="2">
         <v>3549</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>7</v>
@@ -692,15 +695,15 @@
         <v>25</v>
       </c>
       <c r="T4" s="3">
-        <v>45781</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -711,17 +714,17 @@
       <c r="E5" s="2">
         <v>66</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
+      <c r="F5" s="9">
+        <v>45778</v>
       </c>
       <c r="G5" s="2">
         <v>2468</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>7</v>
@@ -732,17 +735,17 @@
       <c r="L5" s="2">
         <v>58</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>13</v>
+      <c r="M5" s="6">
+        <v>45778</v>
       </c>
       <c r="N5" s="2">
         <v>2468</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>7</v>
@@ -754,18 +757,18 @@
         <v>58</v>
       </c>
       <c r="T5" s="3">
-        <v>45782</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
@@ -773,20 +776,20 @@
       <c r="E6" s="2">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
+      <c r="F6" s="9">
+        <v>45778</v>
       </c>
       <c r="G6" s="2">
         <v>2554</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>8</v>
@@ -794,20 +797,20 @@
       <c r="L6" s="2">
         <v>24</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>18</v>
+      <c r="M6" s="6">
+        <v>45778</v>
       </c>
       <c r="N6" s="2">
         <v>2554</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>8</v>
@@ -816,77 +819,77 @@
         <v>24</v>
       </c>
       <c r="T6" s="3">
-        <v>45783</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2">
         <v>56</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
+      <c r="F7" s="9">
+        <v>45778</v>
       </c>
       <c r="G7" s="2">
         <v>3598</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>9</v>
+      <c r="M7" s="6">
+        <v>45778</v>
       </c>
       <c r="N7" s="2">
         <v>3598</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S7" s="2">
         <v>56</v>
       </c>
       <c r="T7" s="3">
-        <v>45784</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -897,17 +900,17 @@
       <c r="E8" s="2">
         <v>27</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
+      <c r="F8" s="9">
+        <v>45778</v>
       </c>
       <c r="G8" s="2">
         <v>2456</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>7</v>
@@ -918,17 +921,17 @@
       <c r="L8" s="2">
         <v>27</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>13</v>
+      <c r="M8" s="6">
+        <v>45778</v>
       </c>
       <c r="N8" s="2">
         <v>2456</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>7</v>
@@ -940,15 +943,15 @@
         <v>27</v>
       </c>
       <c r="T8" s="3">
-        <v>45785</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -959,17 +962,17 @@
       <c r="E9" s="2">
         <v>40</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
+      <c r="F9" s="9">
+        <v>45778</v>
       </c>
       <c r="G9" s="2">
         <v>65481</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>7</v>
@@ -980,17 +983,17 @@
       <c r="L9" s="2">
         <v>40</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>18</v>
+      <c r="M9" s="6">
+        <v>45778</v>
       </c>
       <c r="N9" s="2">
         <v>6548</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>7</v>
@@ -1002,7 +1005,7 @@
         <v>79</v>
       </c>
       <c r="T9" s="3">
-        <v>45786</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/examples/example_large_2.xlsx
+++ b/examples/example_large_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/protmaks/_VS_code_projects_NEW/maxpilot/maxpilot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522AD12B-4CD4-B843-AA28-A34FA7603D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DFD634-2336-C64D-B59F-E0797BE82727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="42">
   <si>
     <t>First Name</t>
   </si>
@@ -143,16 +143,20 @@
   </si>
   <si>
     <t>Date8</t>
+  </si>
+  <si>
+    <t>Date5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="169" formatCode="dd\/mm\/yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="dd\/mm\/yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -202,18 +206,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,23 +436,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y999"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="10" style="7" customWidth="1"/>
-    <col min="14" max="25" width="10" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="13" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="10" style="7" customWidth="1"/>
+    <col min="15" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,55 +472,58 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -531,50 +542,53 @@
       <c r="F2" s="9">
         <v>45778</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="12">
+        <v>45778</v>
+      </c>
+      <c r="H2" s="2">
         <v>1582</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>25</v>
       </c>
-      <c r="M2" s="6">
-        <v>45778</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="N2" s="6">
+        <v>45778</v>
+      </c>
+      <c r="O2" s="2">
         <v>1582</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="2">
         <v>25</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2" s="3">
         <v>45778</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -593,50 +607,53 @@
       <c r="F3" s="9">
         <v>45778</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="12">
+        <v>45778</v>
+      </c>
+      <c r="H3" s="2">
         <v>2587</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>36</v>
       </c>
-      <c r="M3" s="6">
-        <v>45778</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="N3" s="6">
+        <v>45778</v>
+      </c>
+      <c r="O3" s="2">
         <v>2587</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3" s="2">
         <v>36</v>
       </c>
-      <c r="T3" s="3">
+      <c r="U3" s="3">
         <v>45778</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -655,50 +672,53 @@
       <c r="F4" s="9">
         <v>45778</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="12">
+        <v>45778</v>
+      </c>
+      <c r="H4" s="2">
         <v>3549</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>25</v>
       </c>
-      <c r="M4" s="6">
-        <v>45778</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="N4" s="6">
+        <v>45778</v>
+      </c>
+      <c r="O4" s="2">
         <v>3549</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <v>25</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="3">
         <v>45778</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -717,50 +737,53 @@
       <c r="F5" s="9">
         <v>45778</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="12">
+        <v>45778</v>
+      </c>
+      <c r="H5" s="2">
         <v>2468</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>58</v>
       </c>
-      <c r="M5" s="6">
-        <v>45778</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="N5" s="6">
+        <v>45778</v>
+      </c>
+      <c r="O5" s="2">
         <v>2468</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>58</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>45778</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -779,50 +802,53 @@
       <c r="F6" s="9">
         <v>45778</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="12">
+        <v>45778</v>
+      </c>
+      <c r="H6" s="2">
         <v>2554</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>24</v>
       </c>
-      <c r="M6" s="6">
-        <v>45778</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="N6" s="6">
+        <v>45778</v>
+      </c>
+      <c r="O6" s="2">
         <v>2554</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>24</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>45778</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -841,50 +867,53 @@
       <c r="F7" s="9">
         <v>45778</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="12">
+        <v>45778</v>
+      </c>
+      <c r="H7" s="2">
         <v>3598</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>56</v>
       </c>
-      <c r="M7" s="6">
-        <v>45778</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="N7" s="6">
+        <v>45778</v>
+      </c>
+      <c r="O7" s="2">
         <v>3598</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>56</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>45778</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -903,50 +932,53 @@
       <c r="F8" s="9">
         <v>45778</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="12">
+        <v>45778</v>
+      </c>
+      <c r="H8" s="2">
         <v>2456</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>27</v>
       </c>
-      <c r="M8" s="6">
-        <v>45778</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="N8" s="6">
+        <v>45778</v>
+      </c>
+      <c r="O8" s="2">
         <v>2456</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <v>27</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>45778</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -965,56 +997,59 @@
       <c r="F9" s="9">
         <v>45778</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="12">
+        <v>45778</v>
+      </c>
+      <c r="H9" s="2">
         <v>65481</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>40</v>
       </c>
-      <c r="M9" s="6">
-        <v>45778</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="N9" s="6">
+        <v>45778</v>
+      </c>
+      <c r="O9" s="2">
         <v>6548</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="2">
         <v>79</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>45778</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
